--- a/docss/trend/turquey/E_huntington.xlsx
+++ b/docss/trend/turquey/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\turquey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\turquey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1556,15 +1556,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B1" sqref="B1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1578,82 +1578,77 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2009</v>
       </c>
       <c r="B2" s="7">
-        <v>1.9306922797113657E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C2" s="7">
-        <v>2.5615205289795995E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D2" s="7">
-        <v>1.3372376095503569E-2</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
       <c r="B3" s="7">
-        <v>3.4660597331821918E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C3" s="7">
-        <v>2.2856004303321242E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>4.5188724528998137E-2</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
       <c r="B4" s="7">
-        <v>3.7294386303983629E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>4.0267745964229107E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D4" s="7">
-        <v>3.7394114071503282E-2</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
       <c r="B5" s="7">
-        <v>3.1529565923847258E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>3.4530768869444728E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>2.8862071456387639E-2</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6" s="7">
-        <v>4.7662299126386642E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C6" s="7">
-        <v>3.2692521810531616E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D6" s="7">
-        <v>6.1575348954647779E-2</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
